--- a/Data/EC/NIT-9003405598.xlsx
+++ b/Data/EC/NIT-9003405598.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{434D14B1-9DC8-4F2C-96C6-DA013D355DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF96DCD9-2C87-44F3-9BCF-B6A02C180FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F405A52D-83DD-4FAF-B89A-5FD74E35BC3A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{78EBF258-4331-4651-9A9D-79DC3FE3C97C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="146">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -62,376 +62,385 @@
     <t>ACASI COLOMBIA ZF S.A.S</t>
   </si>
   <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>405217</t>
+  </si>
+  <si>
+    <t>JORGE DAVID CUBA BELISARIO</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
     <t>CC</t>
   </si>
   <si>
+    <t>7938341</t>
+  </si>
+  <si>
+    <t>ADALBERTO MAZA DE ARCO</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1143351193</t>
+  </si>
+  <si>
+    <t>JAYDER JAVIER QUINTANA MUÑOZ</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>27872316</t>
+  </si>
+  <si>
+    <t>CESAR AUGUSTO CASTRO ARELLANO</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
     <t>72166821</t>
   </si>
   <si>
     <t>ALEXANDER EMILIO ZAPATA MARRUGO</t>
   </si>
   <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>27872316</t>
-  </si>
-  <si>
-    <t>CESAR AUGUSTO CASTRO ARELLANO</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>7938341</t>
-  </si>
-  <si>
-    <t>ADALBERTO MAZA DE ARCO</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
     <t>73009762</t>
   </si>
   <si>
     <t>LUIS FERNANDO ORTIZ FLOREZ</t>
   </si>
   <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>1143351193</t>
-  </si>
-  <si>
-    <t>JAYDER JAVIER QUINTANA MUÑOZ</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
+    <t>1046013</t>
+  </si>
+  <si>
+    <t>JOAN ENRIQUE LAMEDA BRICENO</t>
   </si>
   <si>
     <t>1001967691</t>
   </si>
   <si>
     <t>RODRIGO JOSE MONTIEL MARTELO</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>405217</t>
-  </si>
-  <si>
-    <t>JORGE DAVID CUBA BELISARIO</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -845,7 +854,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEBE3EB5-264B-F15C-C66A-E97D89094198}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AFB0A0D-6F72-DF8C-C0A3-55C9D1DBB524}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1196,8 +1205,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936885CF-A450-42D5-A8AE-B1E7F0380283}">
-  <dimension ref="B2:J250"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516555EF-06E6-4C8B-89F4-679B7738093D}">
+  <dimension ref="B2:J255"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1221,7 +1230,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1266,7 +1275,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1298,12 +1307,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>17710807</v>
+        <v>18230526</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1314,17 +1323,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F13" s="5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1351,13 +1360,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1374,10 +1383,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>220607</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1385,22 +1394,22 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>80000</v>
+        <v>220607</v>
       </c>
       <c r="G17" s="18">
-        <v>2000000</v>
+        <v>5515180</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1408,22 +1417,22 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>80000</v>
+        <v>220607</v>
       </c>
       <c r="G18" s="18">
-        <v>2000000</v>
+        <v>5515180</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1440,13 +1449,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>40000</v>
+        <v>220607</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1454,22 +1463,22 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>80000</v>
+        <v>220607</v>
       </c>
       <c r="G20" s="18">
-        <v>2000000</v>
+        <v>5515180</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1489,10 +1498,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>40000</v>
+        <v>220607</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1512,10 +1521,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>40000</v>
+        <v>220607</v>
       </c>
       <c r="G22" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1523,22 +1532,22 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>80000</v>
+        <v>220607</v>
       </c>
       <c r="G23" s="18">
-        <v>2000000</v>
+        <v>5515180</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1555,13 +1564,13 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>40000</v>
+        <v>220607</v>
       </c>
       <c r="G24" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1569,22 +1578,22 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>80000</v>
+        <v>220607</v>
       </c>
       <c r="G25" s="18">
-        <v>2000000</v>
+        <v>5515180</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1592,22 +1601,22 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>80000</v>
+        <v>220607</v>
       </c>
       <c r="G26" s="18">
-        <v>2000000</v>
+        <v>5515180</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1624,13 +1633,13 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>40000</v>
+        <v>220607</v>
       </c>
       <c r="G27" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1647,13 +1656,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>40000</v>
+        <v>220607</v>
       </c>
       <c r="G28" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1661,22 +1670,22 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>80000</v>
+        <v>220607</v>
       </c>
       <c r="G29" s="18">
-        <v>2000000</v>
+        <v>5515180</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1684,22 +1693,22 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>80000</v>
+        <v>220607</v>
       </c>
       <c r="G30" s="18">
-        <v>2000000</v>
+        <v>5515180</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1716,13 +1725,13 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>40000</v>
+        <v>220607</v>
       </c>
       <c r="G31" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1730,22 +1739,22 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>80000</v>
+        <v>220607</v>
       </c>
       <c r="G32" s="18">
-        <v>2000000</v>
+        <v>5515180</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1762,13 +1771,13 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>40000</v>
+        <v>220607</v>
       </c>
       <c r="G33" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1776,22 +1785,22 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>80000</v>
+        <v>220607</v>
       </c>
       <c r="G34" s="18">
-        <v>2000000</v>
+        <v>5515180</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1808,13 +1817,13 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>40000</v>
+        <v>220607</v>
       </c>
       <c r="G35" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1822,22 +1831,22 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>80000</v>
+        <v>220607</v>
       </c>
       <c r="G36" s="18">
-        <v>2000000</v>
+        <v>5515180</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1854,13 +1863,13 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>40000</v>
+        <v>220607</v>
       </c>
       <c r="G37" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1877,13 +1886,13 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>40000</v>
+        <v>220607</v>
       </c>
       <c r="G38" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1891,22 +1900,22 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>80000</v>
+        <v>220607</v>
       </c>
       <c r="G39" s="18">
-        <v>2000000</v>
+        <v>5515180</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1914,22 +1923,22 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>80000</v>
+        <v>220607</v>
       </c>
       <c r="G40" s="18">
-        <v>2000000</v>
+        <v>5515180</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1946,13 +1955,13 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>40000</v>
+        <v>220607</v>
       </c>
       <c r="G41" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1969,13 +1978,13 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>40000</v>
+        <v>220607</v>
       </c>
       <c r="G42" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1983,22 +1992,22 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F43" s="18">
-        <v>80000</v>
+        <v>38250</v>
       </c>
       <c r="G43" s="18">
-        <v>2000000</v>
+        <v>956250</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -2006,22 +2015,22 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F44" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G44" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2029,22 +2038,22 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F45" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G45" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2052,22 +2061,22 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F46" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G46" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2075,22 +2084,22 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D47" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F47" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G47" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2098,22 +2107,22 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F48" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G48" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2121,22 +2130,22 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F49" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G49" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2144,22 +2153,22 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F50" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G50" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2167,22 +2176,22 @@
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F51" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G51" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2190,22 +2199,22 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F52" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G52" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2213,22 +2222,22 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F53" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G53" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2236,22 +2245,22 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F54" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G54" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2259,22 +2268,22 @@
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F55" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G55" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2282,22 +2291,22 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F56" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G56" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2305,22 +2314,22 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F57" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G57" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2328,22 +2337,22 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F58" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G58" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2351,22 +2360,22 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F59" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G59" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2374,22 +2383,22 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F60" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G60" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2397,22 +2406,22 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F61" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G61" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2420,22 +2429,22 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F62" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G62" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2443,22 +2452,22 @@
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F63" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G63" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2466,22 +2475,22 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F64" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G64" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2489,22 +2498,22 @@
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F65" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G65" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2512,22 +2521,22 @@
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F66" s="18">
-        <v>38250</v>
+        <v>35112</v>
       </c>
       <c r="G66" s="18">
-        <v>956250</v>
+        <v>877803</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2535,22 +2544,22 @@
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F67" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G67" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2558,22 +2567,22 @@
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F68" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G68" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2581,22 +2590,22 @@
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F69" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G69" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2604,22 +2613,22 @@
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F70" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G70" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2627,22 +2636,22 @@
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G71" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2650,22 +2659,22 @@
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F72" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G72" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2673,22 +2682,22 @@
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F73" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G73" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2696,22 +2705,22 @@
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F74" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G74" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2719,22 +2728,22 @@
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F75" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G75" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2742,22 +2751,22 @@
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F76" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G76" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2765,22 +2774,22 @@
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F77" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G77" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2788,22 +2797,22 @@
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F78" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G78" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2811,22 +2820,22 @@
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F79" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G79" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2834,22 +2843,22 @@
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F80" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G80" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2857,22 +2866,22 @@
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F81" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G81" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2880,22 +2889,22 @@
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F82" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G82" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2903,22 +2912,22 @@
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F83" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G83" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2926,22 +2935,22 @@
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F84" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G84" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2949,22 +2958,22 @@
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F85" s="18">
-        <v>12000</v>
+        <v>35112</v>
       </c>
       <c r="G85" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2972,22 +2981,22 @@
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F86" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G86" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2995,22 +3004,22 @@
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F87" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G87" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3018,22 +3027,22 @@
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F88" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G88" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3041,22 +3050,22 @@
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F89" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G89" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3064,22 +3073,22 @@
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F90" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G90" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3087,22 +3096,22 @@
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F91" s="18">
-        <v>26500</v>
+        <v>35112</v>
       </c>
       <c r="G91" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3110,22 +3119,22 @@
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F92" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G92" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3133,22 +3142,22 @@
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F93" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G93" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3156,22 +3165,22 @@
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F94" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G94" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3179,22 +3188,22 @@
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F95" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G95" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3202,22 +3211,22 @@
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F96" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G96" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3225,22 +3234,22 @@
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F97" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G97" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3248,22 +3257,22 @@
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F98" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G98" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3271,22 +3280,22 @@
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F99" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G99" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3294,22 +3303,22 @@
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F100" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G100" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3317,22 +3326,22 @@
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F101" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G101" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3340,16 +3349,16 @@
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F102" s="18">
         <v>35112</v>
@@ -3363,22 +3372,22 @@
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F103" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G103" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3389,19 +3398,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F104" s="18">
-        <v>35112</v>
+        <v>66667</v>
       </c>
       <c r="G104" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3409,16 +3418,16 @@
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="F105" s="18">
         <v>80000</v>
@@ -3435,19 +3444,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="F106" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G106" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3455,16 +3464,16 @@
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="F107" s="18">
         <v>80000</v>
@@ -3478,16 +3487,16 @@
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="F108" s="18">
         <v>80000</v>
@@ -3504,19 +3513,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="F109" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G109" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3527,19 +3536,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="F110" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G110" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3547,16 +3556,16 @@
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="F111" s="18">
         <v>80000</v>
@@ -3570,16 +3579,16 @@
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="F112" s="18">
         <v>80000</v>
@@ -3596,19 +3605,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="F113" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G113" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3619,19 +3628,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="F114" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G114" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3639,16 +3648,16 @@
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="F115" s="18">
         <v>80000</v>
@@ -3662,16 +3671,16 @@
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="F116" s="18">
         <v>80000</v>
@@ -3688,19 +3697,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="F117" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G117" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3708,16 +3717,16 @@
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="F118" s="18">
         <v>80000</v>
@@ -3734,19 +3743,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="F119" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G119" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3757,19 +3766,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="F120" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G120" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3777,16 +3786,16 @@
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="F121" s="18">
         <v>80000</v>
@@ -3803,19 +3812,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="F122" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G122" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3823,16 +3832,16 @@
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B123" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="F123" s="18">
         <v>80000</v>
@@ -3849,19 +3858,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F124" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G124" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3869,16 +3878,16 @@
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B125" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F125" s="18">
         <v>80000</v>
@@ -3892,16 +3901,16 @@
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B126" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="F126" s="18">
         <v>80000</v>
@@ -3918,19 +3927,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="F127" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G127" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3938,16 +3947,16 @@
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="F128" s="18">
         <v>80000</v>
@@ -3964,19 +3973,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="F129" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G129" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3984,16 +3993,16 @@
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="F130" s="18">
         <v>80000</v>
@@ -4010,19 +4019,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="F131" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G131" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4033,19 +4042,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="F132" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G132" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4053,16 +4062,16 @@
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B133" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="F133" s="18">
         <v>80000</v>
@@ -4076,16 +4085,16 @@
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B134" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="F134" s="18">
         <v>80000</v>
@@ -4102,19 +4111,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="F135" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G135" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4122,16 +4131,16 @@
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B136" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="F136" s="18">
         <v>80000</v>
@@ -4148,19 +4157,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="F137" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G137" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4168,16 +4177,16 @@
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B138" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="F138" s="18">
         <v>80000</v>
@@ -4194,19 +4203,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="F139" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G139" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4217,19 +4226,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="F140" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G140" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4237,16 +4246,16 @@
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B141" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="F141" s="18">
         <v>80000</v>
@@ -4260,16 +4269,16 @@
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B142" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="F142" s="18">
         <v>80000</v>
@@ -4286,19 +4295,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="F143" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G143" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4306,16 +4315,16 @@
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B144" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="F144" s="18">
         <v>80000</v>
@@ -4332,19 +4341,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F145" s="18">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="G145" s="18">
-        <v>1800000</v>
+        <v>2000000</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4355,19 +4364,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="F146" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G146" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4375,16 +4384,16 @@
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B147" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="F147" s="18">
         <v>80000</v>
@@ -4401,19 +4410,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F148" s="18">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="G148" s="18">
-        <v>1800000</v>
+        <v>2000000</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4424,19 +4433,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="F149" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G149" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4444,16 +4453,16 @@
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B150" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="F150" s="18">
         <v>80000</v>
@@ -4470,19 +4479,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D151" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E151" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E151" s="16" t="s">
-        <v>94</v>
-      </c>
       <c r="F151" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G151" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4490,16 +4499,16 @@
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B152" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="F152" s="18">
         <v>80000</v>
@@ -4516,19 +4525,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="F153" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G153" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4539,19 +4548,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F154" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G154" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4559,16 +4568,16 @@
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B155" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="F155" s="18">
         <v>80000</v>
@@ -4582,16 +4591,16 @@
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B156" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="F156" s="18">
         <v>80000</v>
@@ -4608,19 +4617,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="F157" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G157" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4628,16 +4637,16 @@
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B158" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="F158" s="18">
         <v>80000</v>
@@ -4654,19 +4663,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F159" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G159" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4677,19 +4686,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="F160" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G160" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4697,16 +4706,16 @@
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B161" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F161" s="18">
         <v>80000</v>
@@ -4720,16 +4729,16 @@
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B162" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F162" s="18">
         <v>80000</v>
@@ -4746,19 +4755,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F163" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G163" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4769,19 +4778,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="F164" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G164" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4789,16 +4798,16 @@
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B165" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="F165" s="18">
         <v>80000</v>
@@ -4812,16 +4821,16 @@
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B166" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="F166" s="18">
         <v>80000</v>
@@ -4838,19 +4847,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F167" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G167" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4858,16 +4867,16 @@
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B168" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F168" s="18">
         <v>80000</v>
@@ -4884,19 +4893,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F169" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G169" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4907,19 +4916,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F170" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G170" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4927,22 +4936,22 @@
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B171" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F171" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G171" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4950,16 +4959,16 @@
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B172" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F172" s="18">
         <v>80000</v>
@@ -4973,22 +4982,22 @@
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B173" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F173" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G173" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4996,16 +5005,16 @@
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B174" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F174" s="18">
         <v>80000</v>
@@ -5022,19 +5031,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F175" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G175" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5042,16 +5051,16 @@
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B176" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F176" s="18">
         <v>80000</v>
@@ -5068,19 +5077,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F177" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G177" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5088,22 +5097,22 @@
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B178" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F178" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G178" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5111,22 +5120,22 @@
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B179" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F179" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G179" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5134,16 +5143,16 @@
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B180" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F180" s="18">
         <v>80000</v>
@@ -5160,19 +5169,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F181" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G181" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5180,16 +5189,16 @@
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B182" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F182" s="18">
         <v>80000</v>
@@ -5206,19 +5215,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F183" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G183" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5226,22 +5235,22 @@
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B184" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="F184" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G184" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5249,16 +5258,16 @@
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B185" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F185" s="18">
         <v>80000</v>
@@ -5272,22 +5281,22 @@
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B186" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F186" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G186" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5298,19 +5307,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F187" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G187" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5321,19 +5330,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F188" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G188" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5341,16 +5350,16 @@
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B189" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F189" s="18">
         <v>80000</v>
@@ -5364,22 +5373,22 @@
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B190" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F190" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G190" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5387,22 +5396,22 @@
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B191" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F191" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G191" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5410,16 +5419,16 @@
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B192" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F192" s="18">
         <v>80000</v>
@@ -5436,19 +5445,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F193" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G193" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5456,16 +5465,16 @@
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B194" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F194" s="18">
         <v>80000</v>
@@ -5479,22 +5488,22 @@
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B195" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F195" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G195" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5505,19 +5514,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E196" s="16" t="s">
         <v>114</v>
       </c>
       <c r="F196" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G196" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5525,22 +5534,22 @@
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B197" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="E197" s="16" t="s">
         <v>115</v>
       </c>
       <c r="F197" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G197" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5551,19 +5560,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F198" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G198" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5571,16 +5580,16 @@
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B199" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F199" s="18">
         <v>80000</v>
@@ -5594,22 +5603,22 @@
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B200" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F200" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G200" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5617,16 +5626,16 @@
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B201" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F201" s="18">
         <v>80000</v>
@@ -5643,19 +5652,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F202" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G202" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5666,19 +5675,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F203" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G203" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5686,22 +5695,22 @@
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B204" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F204" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G204" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5709,16 +5718,16 @@
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B205" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F205" s="18">
         <v>80000</v>
@@ -5732,22 +5741,22 @@
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B206" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F206" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G206" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5758,19 +5767,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F207" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G207" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5778,16 +5787,16 @@
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B208" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F208" s="18">
         <v>80000</v>
@@ -5801,22 +5810,22 @@
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B209" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F209" s="18">
-        <v>35112</v>
+        <v>12000</v>
       </c>
       <c r="G209" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5824,22 +5833,22 @@
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B210" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="F210" s="18">
-        <v>220607</v>
+        <v>40000</v>
       </c>
       <c r="G210" s="18">
-        <v>5515180</v>
+        <v>1000000</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5847,22 +5856,22 @@
     </row>
     <row r="211" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B211" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="F211" s="18">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="G211" s="18">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5870,22 +5879,22 @@
     </row>
     <row r="212" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B212" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="F212" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G212" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5893,22 +5902,22 @@
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B213" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="F213" s="18">
-        <v>220607</v>
+        <v>40000</v>
       </c>
       <c r="G213" s="18">
-        <v>5515180</v>
+        <v>1000000</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5916,22 +5925,22 @@
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B214" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="F214" s="18">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="G214" s="18">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5939,22 +5948,22 @@
     </row>
     <row r="215" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B215" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="F215" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G215" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5962,22 +5971,22 @@
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B216" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F216" s="18">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="G216" s="18">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -5985,22 +5994,22 @@
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B217" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F217" s="18">
-        <v>220607</v>
+        <v>40000</v>
       </c>
       <c r="G217" s="18">
-        <v>5515180</v>
+        <v>1000000</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -6008,22 +6017,22 @@
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B218" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F218" s="18">
-        <v>220607</v>
+        <v>40000</v>
       </c>
       <c r="G218" s="18">
-        <v>5515180</v>
+        <v>1000000</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -6031,22 +6040,22 @@
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B219" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="F219" s="18">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="G219" s="18">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6054,22 +6063,22 @@
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B220" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="F220" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G220" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -6077,22 +6086,22 @@
     </row>
     <row r="221" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B221" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F221" s="18">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="G221" s="18">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6100,22 +6109,22 @@
     </row>
     <row r="222" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B222" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F222" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G222" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6123,22 +6132,22 @@
     </row>
     <row r="223" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B223" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D223" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E223" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E223" s="16" t="s">
-        <v>123</v>
-      </c>
       <c r="F223" s="18">
-        <v>220607</v>
+        <v>40000</v>
       </c>
       <c r="G223" s="18">
-        <v>5515180</v>
+        <v>1000000</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6146,22 +6155,22 @@
     </row>
     <row r="224" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B224" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="F224" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G224" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6169,22 +6178,22 @@
     </row>
     <row r="225" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B225" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F225" s="18">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="G225" s="18">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6192,22 +6201,22 @@
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B226" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F226" s="18">
-        <v>220607</v>
+        <v>40000</v>
       </c>
       <c r="G226" s="18">
-        <v>5515180</v>
+        <v>1000000</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6215,22 +6224,22 @@
     </row>
     <row r="227" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B227" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F227" s="18">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="G227" s="18">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6238,22 +6247,22 @@
     </row>
     <row r="228" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B228" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F228" s="18">
-        <v>220607</v>
+        <v>40000</v>
       </c>
       <c r="G228" s="18">
-        <v>5515180</v>
+        <v>1000000</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6261,22 +6270,22 @@
     </row>
     <row r="229" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B229" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F229" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G229" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6284,22 +6293,22 @@
     </row>
     <row r="230" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B230" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F230" s="18">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="G230" s="18">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6307,22 +6316,22 @@
     </row>
     <row r="231" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B231" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F231" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G231" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6330,22 +6339,22 @@
     </row>
     <row r="232" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B232" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F232" s="18">
-        <v>220607</v>
+        <v>40000</v>
       </c>
       <c r="G232" s="18">
-        <v>5515180</v>
+        <v>1000000</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6353,22 +6362,22 @@
     </row>
     <row r="233" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B233" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F233" s="18">
-        <v>220607</v>
+        <v>40000</v>
       </c>
       <c r="G233" s="18">
-        <v>5515180</v>
+        <v>1000000</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6376,22 +6385,22 @@
     </row>
     <row r="234" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B234" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F234" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G234" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6399,22 +6408,22 @@
     </row>
     <row r="235" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B235" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F235" s="18">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="G235" s="18">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6422,22 +6431,22 @@
     </row>
     <row r="236" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B236" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F236" s="18">
-        <v>220607</v>
+        <v>40000</v>
       </c>
       <c r="G236" s="18">
-        <v>5515180</v>
+        <v>1000000</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6445,22 +6454,22 @@
     </row>
     <row r="237" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B237" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F237" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G237" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6468,22 +6477,22 @@
     </row>
     <row r="238" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B238" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F238" s="18">
-        <v>66667</v>
+        <v>40000</v>
       </c>
       <c r="G238" s="18">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6491,22 +6500,22 @@
     </row>
     <row r="239" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B239" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F239" s="18">
-        <v>220607</v>
+        <v>40000</v>
       </c>
       <c r="G239" s="18">
-        <v>5515180</v>
+        <v>1000000</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6514,22 +6523,22 @@
     </row>
     <row r="240" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B240" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F240" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G240" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6537,22 +6546,22 @@
     </row>
     <row r="241" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B241" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F241" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G241" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6560,22 +6569,22 @@
     </row>
     <row r="242" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B242" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F242" s="18">
-        <v>220607</v>
+        <v>40000</v>
       </c>
       <c r="G242" s="18">
-        <v>5515180</v>
+        <v>1000000</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6583,78 +6592,193 @@
     </row>
     <row r="243" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B243" s="15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F243" s="18">
-        <v>220607</v>
+        <v>40000</v>
       </c>
       <c r="G243" s="18">
-        <v>5515180</v>
+        <v>1000000</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
       <c r="J243" s="20"/>
     </row>
     <row r="244" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B244" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C244" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D244" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E244" s="22" t="s">
+      <c r="B244" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C244" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D244" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E244" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F244" s="18">
+        <v>26500</v>
+      </c>
+      <c r="G244" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H244" s="19"/>
+      <c r="I244" s="19"/>
+      <c r="J244" s="20"/>
+    </row>
+    <row r="245" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B245" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="F244" s="24">
-        <v>35112</v>
-      </c>
-      <c r="G244" s="24">
-        <v>877803</v>
-      </c>
-      <c r="H244" s="25"/>
-      <c r="I244" s="25"/>
-      <c r="J244" s="26"/>
+      <c r="D245" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E245" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F245" s="18">
+        <v>88000</v>
+      </c>
+      <c r="G245" s="18">
+        <v>2200000</v>
+      </c>
+      <c r="H245" s="19"/>
+      <c r="I245" s="19"/>
+      <c r="J245" s="20"/>
+    </row>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B246" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D246" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E246" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F246" s="18">
+        <v>88000</v>
+      </c>
+      <c r="G246" s="18">
+        <v>2200000</v>
+      </c>
+      <c r="H246" s="19"/>
+      <c r="I246" s="19"/>
+      <c r="J246" s="20"/>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B247" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D247" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E247" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F247" s="18">
+        <v>88000</v>
+      </c>
+      <c r="G247" s="18">
+        <v>2200000</v>
+      </c>
+      <c r="H247" s="19"/>
+      <c r="I247" s="19"/>
+      <c r="J247" s="20"/>
+    </row>
+    <row r="248" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B248" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C248" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D248" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E248" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F248" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G248" s="18">
+        <v>1800000</v>
+      </c>
+      <c r="H248" s="19"/>
+      <c r="I248" s="19"/>
+      <c r="J248" s="20"/>
     </row>
     <row r="249" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B249" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="C249" s="32"/>
-      <c r="H249" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I249" s="1"/>
-      <c r="J249" s="1"/>
-    </row>
-    <row r="250" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B250" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C250" s="32"/>
-      <c r="H250" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I250" s="1"/>
-      <c r="J250" s="1"/>
+      <c r="B249" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C249" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D249" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E249" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F249" s="24">
+        <v>40000</v>
+      </c>
+      <c r="G249" s="24">
+        <v>1800000</v>
+      </c>
+      <c r="H249" s="25"/>
+      <c r="I249" s="25"/>
+      <c r="J249" s="26"/>
+    </row>
+    <row r="254" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B254" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C254" s="32"/>
+      <c r="H254" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I254" s="1"/>
+      <c r="J254" s="1"/>
+    </row>
+    <row r="255" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B255" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C255" s="32"/>
+      <c r="H255" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I255" s="1"/>
+      <c r="J255" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="H250:J250"/>
-    <mergeCell ref="H249:J249"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="H255:J255"/>
+    <mergeCell ref="H254:J254"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9003405598.xlsx
+++ b/Data/EC/NIT-9003405598.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF96DCD9-2C87-44F3-9BCF-B6A02C180FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AB9F7C5-DB2D-42A8-9A95-EA14CF5738EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{78EBF258-4331-4651-9A9D-79DC3FE3C97C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6422BE98-ACA3-4F76-AF26-44208CF613A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="145">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,382 +65,379 @@
     <t>CE</t>
   </si>
   <si>
+    <t>27872316</t>
+  </si>
+  <si>
+    <t>CESAR AUGUSTO CASTRO ARELLANO</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>72166821</t>
+  </si>
+  <si>
+    <t>ALEXANDER EMILIO ZAPATA MARRUGO</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>7938341</t>
+  </si>
+  <si>
+    <t>ADALBERTO MAZA DE ARCO</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>73009762</t>
+  </si>
+  <si>
+    <t>LUIS FERNANDO ORTIZ FLOREZ</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>1143351193</t>
+  </si>
+  <si>
+    <t>JAYDER JAVIER QUINTANA MUÑOZ</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>1001967691</t>
+  </si>
+  <si>
+    <t>RODRIGO JOSE MONTIEL MARTELO</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
     <t>405217</t>
   </si>
   <si>
     <t>JORGE DAVID CUBA BELISARIO</t>
   </si>
   <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>7938341</t>
-  </si>
-  <si>
-    <t>ADALBERTO MAZA DE ARCO</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1143351193</t>
-  </si>
-  <si>
-    <t>JAYDER JAVIER QUINTANA MUÑOZ</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>27872316</t>
-  </si>
-  <si>
-    <t>CESAR AUGUSTO CASTRO ARELLANO</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>72166821</t>
-  </si>
-  <si>
-    <t>ALEXANDER EMILIO ZAPATA MARRUGO</t>
-  </si>
-  <si>
-    <t>73009762</t>
-  </si>
-  <si>
-    <t>LUIS FERNANDO ORTIZ FLOREZ</t>
-  </si>
-  <si>
-    <t>1046013</t>
-  </si>
-  <si>
-    <t>JOAN ENRIQUE LAMEDA BRICENO</t>
-  </si>
-  <si>
-    <t>1001967691</t>
-  </si>
-  <si>
-    <t>RODRIGO JOSE MONTIEL MARTELO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -539,7 +536,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -552,9 +551,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -754,23 +751,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -798,10 +795,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -854,7 +851,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AFB0A0D-6F72-DF8C-C0A3-55C9D1DBB524}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AF16F58-E109-D912-B876-71B5BF7EC13F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1205,8 +1202,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516555EF-06E6-4C8B-89F4-679B7738093D}">
-  <dimension ref="B2:J255"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97A9EF1-EDCE-4196-A54E-991EBCA28495}">
+  <dimension ref="B2:J254"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1230,7 +1227,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1275,7 +1272,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1307,12 +1304,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>18230526</v>
+        <v>18222245</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1323,17 +1320,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1360,13 +1357,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1383,10 +1380,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G16" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1394,22 +1391,22 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>220607</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>5515180</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1426,13 +1423,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G18" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1440,22 +1437,22 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
-        <v>220607</v>
+        <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>5515180</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1472,13 +1469,13 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G20" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1486,22 +1483,22 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>220607</v>
+        <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>5515180</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1521,10 +1518,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G22" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1532,22 +1529,22 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>220607</v>
+        <v>40000</v>
       </c>
       <c r="G23" s="18">
-        <v>5515180</v>
+        <v>1000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1564,13 +1561,13 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G24" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1578,22 +1575,22 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
-        <v>220607</v>
+        <v>40000</v>
       </c>
       <c r="G25" s="18">
-        <v>5515180</v>
+        <v>1000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1610,13 +1607,13 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G26" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1624,22 +1621,22 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F27" s="18">
-        <v>220607</v>
+        <v>40000</v>
       </c>
       <c r="G27" s="18">
-        <v>5515180</v>
+        <v>1000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1656,13 +1653,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G28" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1670,22 +1667,22 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
-        <v>220607</v>
+        <v>40000</v>
       </c>
       <c r="G29" s="18">
-        <v>5515180</v>
+        <v>1000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1702,13 +1699,13 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G30" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1716,22 +1713,22 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F31" s="18">
-        <v>220607</v>
+        <v>40000</v>
       </c>
       <c r="G31" s="18">
-        <v>5515180</v>
+        <v>1000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1748,13 +1745,13 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G32" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1762,22 +1759,22 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F33" s="18">
-        <v>220607</v>
+        <v>40000</v>
       </c>
       <c r="G33" s="18">
-        <v>5515180</v>
+        <v>1000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1794,13 +1791,13 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F34" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G34" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1808,22 +1805,22 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F35" s="18">
-        <v>220607</v>
+        <v>40000</v>
       </c>
       <c r="G35" s="18">
-        <v>5515180</v>
+        <v>1000000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1840,13 +1837,13 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F36" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G36" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1854,22 +1851,22 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F37" s="18">
-        <v>220607</v>
+        <v>40000</v>
       </c>
       <c r="G37" s="18">
-        <v>5515180</v>
+        <v>1000000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1886,13 +1883,13 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F38" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G38" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1900,22 +1897,22 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F39" s="18">
-        <v>220607</v>
+        <v>40000</v>
       </c>
       <c r="G39" s="18">
-        <v>5515180</v>
+        <v>1000000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1932,13 +1929,13 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F40" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G40" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1946,22 +1943,22 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F41" s="18">
-        <v>220607</v>
+        <v>40000</v>
       </c>
       <c r="G41" s="18">
-        <v>5515180</v>
+        <v>1000000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1978,13 +1975,13 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F42" s="18">
-        <v>220607</v>
+        <v>80000</v>
       </c>
       <c r="G42" s="18">
-        <v>5515180</v>
+        <v>2000000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1992,22 +1989,22 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F43" s="18">
-        <v>38250</v>
+        <v>40000</v>
       </c>
       <c r="G43" s="18">
-        <v>956250</v>
+        <v>1000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -2015,22 +2012,22 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F44" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G44" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2038,22 +2035,22 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F45" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G45" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2061,22 +2058,22 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F46" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G46" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2084,22 +2081,22 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F47" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G47" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2107,22 +2104,22 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F48" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G48" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2130,22 +2127,22 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F49" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G49" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2153,22 +2150,22 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F50" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G50" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2176,22 +2173,22 @@
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F51" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G51" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2199,22 +2196,22 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F52" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G52" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2222,22 +2219,22 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F53" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G53" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2245,22 +2242,22 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F54" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G54" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2268,22 +2265,22 @@
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F55" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G55" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2291,22 +2288,22 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F56" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G56" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2314,22 +2311,22 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F57" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G57" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2337,22 +2334,22 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F58" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G58" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2360,22 +2357,22 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F59" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G59" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2383,22 +2380,22 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F60" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G60" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2406,22 +2403,22 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F61" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G61" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2429,22 +2426,22 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F62" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G62" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2452,22 +2449,22 @@
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F63" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G63" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2475,22 +2472,22 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="D64" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F64" s="18">
-        <v>35112</v>
+        <v>38250</v>
       </c>
       <c r="G64" s="18">
-        <v>877803</v>
+        <v>2355200</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2498,22 +2495,22 @@
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F65" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G65" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2521,22 +2518,22 @@
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F66" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G66" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2544,22 +2541,22 @@
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F67" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G67" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2567,22 +2564,22 @@
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F68" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G68" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2590,22 +2587,22 @@
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D69" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="F69" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G69" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2613,22 +2610,22 @@
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C70" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="F70" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G70" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2636,22 +2633,22 @@
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E71" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="F71" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G71" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2659,22 +2656,22 @@
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D72" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E72" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="F72" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G72" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2682,22 +2679,22 @@
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F73" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G73" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2705,22 +2702,22 @@
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F74" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G74" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2728,22 +2725,22 @@
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F75" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G75" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2751,22 +2748,22 @@
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F76" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G76" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2774,22 +2771,22 @@
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F77" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G77" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2797,22 +2794,22 @@
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F78" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G78" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2820,22 +2817,22 @@
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F79" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G79" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2843,22 +2840,22 @@
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F80" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G80" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2866,22 +2863,22 @@
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F81" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G81" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2889,22 +2886,22 @@
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F82" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G82" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2912,22 +2909,22 @@
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F83" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G83" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2935,22 +2932,22 @@
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F84" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G84" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2958,22 +2955,22 @@
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F85" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G85" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2981,22 +2978,22 @@
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F86" s="18">
-        <v>35112</v>
+        <v>12000</v>
       </c>
       <c r="G86" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -3004,22 +3001,22 @@
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F87" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G87" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3027,22 +3024,22 @@
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F88" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G88" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3050,22 +3047,22 @@
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F89" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G89" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3073,22 +3070,22 @@
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F90" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G90" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3096,22 +3093,22 @@
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F91" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G91" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3119,22 +3116,22 @@
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F92" s="18">
-        <v>35112</v>
+        <v>26500</v>
       </c>
       <c r="G92" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3142,22 +3139,22 @@
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F93" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G93" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3165,22 +3162,22 @@
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F94" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G94" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3188,22 +3185,22 @@
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F95" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G95" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3211,22 +3208,22 @@
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F96" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G96" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3234,22 +3231,22 @@
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F97" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G97" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3257,22 +3254,22 @@
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F98" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G98" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3280,22 +3277,22 @@
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F99" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G99" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3303,22 +3300,22 @@
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F100" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G100" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3326,22 +3323,22 @@
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F101" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G101" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3349,16 +3346,16 @@
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F102" s="18">
         <v>35112</v>
@@ -3372,22 +3369,22 @@
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F103" s="18">
-        <v>35112</v>
+        <v>80000</v>
       </c>
       <c r="G103" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3395,22 +3392,22 @@
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="F104" s="18">
-        <v>66667</v>
+        <v>35112</v>
       </c>
       <c r="G104" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3421,13 +3418,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="F105" s="18">
         <v>80000</v>
@@ -3441,22 +3438,22 @@
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="F106" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G106" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3467,13 +3464,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="F107" s="18">
         <v>80000</v>
@@ -3487,22 +3484,22 @@
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="F108" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G108" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3513,13 +3510,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="F109" s="18">
         <v>80000</v>
@@ -3533,22 +3530,22 @@
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="F110" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G110" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3559,13 +3556,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="F111" s="18">
         <v>80000</v>
@@ -3579,22 +3576,22 @@
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="F112" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G112" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3605,13 +3602,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="F113" s="18">
         <v>80000</v>
@@ -3625,22 +3622,22 @@
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="F114" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G114" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3651,13 +3648,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="F115" s="18">
         <v>80000</v>
@@ -3671,22 +3668,22 @@
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="F116" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G116" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3697,13 +3694,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="F117" s="18">
         <v>80000</v>
@@ -3717,22 +3714,22 @@
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C118" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E118" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D118" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E118" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F118" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G118" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3743,13 +3740,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="D119" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E119" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="F119" s="18">
         <v>80000</v>
@@ -3763,22 +3760,22 @@
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D120" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E120" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E120" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="F120" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G120" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3789,13 +3786,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" s="16" t="s">
         <v>78</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F121" s="18">
         <v>80000</v>
@@ -3809,22 +3806,22 @@
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="F122" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G122" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3835,13 +3832,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="F123" s="18">
         <v>80000</v>
@@ -3855,22 +3852,22 @@
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F124" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G124" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3881,13 +3878,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="F125" s="18">
         <v>80000</v>
@@ -3901,22 +3898,22 @@
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B126" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="F126" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G126" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3927,13 +3924,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="F127" s="18">
         <v>80000</v>
@@ -3947,22 +3944,22 @@
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F128" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G128" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3973,13 +3970,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F129" s="18">
         <v>80000</v>
@@ -3993,22 +3990,22 @@
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="F130" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G130" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -4019,13 +4016,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="F131" s="18">
         <v>80000</v>
@@ -4039,22 +4036,22 @@
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B132" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F132" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G132" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4065,13 +4062,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="F133" s="18">
         <v>80000</v>
@@ -4085,22 +4082,22 @@
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B134" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="F134" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G134" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4111,13 +4108,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F135" s="18">
         <v>80000</v>
@@ -4131,22 +4128,22 @@
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B136" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="F136" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G136" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4157,13 +4154,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F137" s="18">
         <v>80000</v>
@@ -4177,22 +4174,22 @@
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B138" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="F138" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G138" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4203,13 +4200,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="F139" s="18">
         <v>80000</v>
@@ -4223,22 +4220,22 @@
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B140" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="F140" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G140" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4249,13 +4246,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F141" s="18">
         <v>80000</v>
@@ -4269,22 +4266,22 @@
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B142" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="F142" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G142" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4295,13 +4292,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F143" s="18">
         <v>80000</v>
@@ -4315,22 +4312,22 @@
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B144" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="F144" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G144" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4341,13 +4338,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="F145" s="18">
         <v>80000</v>
@@ -4361,22 +4358,22 @@
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B146" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="F146" s="18">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="G146" s="18">
-        <v>2000000</v>
+        <v>1980000</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4384,22 +4381,22 @@
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B147" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="F147" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G147" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4410,13 +4407,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F148" s="18">
         <v>80000</v>
@@ -4430,22 +4427,22 @@
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B149" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="F149" s="18">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="G149" s="18">
-        <v>2000000</v>
+        <v>1980000</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4453,22 +4450,22 @@
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B150" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="F150" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G150" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4479,13 +4476,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="F151" s="18">
         <v>80000</v>
@@ -4499,22 +4496,22 @@
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B152" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="F152" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G152" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4525,13 +4522,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F153" s="18">
         <v>80000</v>
@@ -4545,22 +4542,22 @@
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B154" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F154" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G154" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4571,13 +4568,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="F155" s="18">
         <v>80000</v>
@@ -4591,22 +4588,22 @@
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B156" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="F156" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G156" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4617,13 +4614,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="F157" s="18">
         <v>80000</v>
@@ -4637,22 +4634,22 @@
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B158" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="F158" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G158" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4663,13 +4660,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F159" s="18">
         <v>80000</v>
@@ -4683,22 +4680,22 @@
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B160" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="F160" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G160" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4709,13 +4706,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="F161" s="18">
         <v>80000</v>
@@ -4729,22 +4726,22 @@
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B162" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F162" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G162" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4755,13 +4752,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F163" s="18">
         <v>80000</v>
@@ -4775,22 +4772,22 @@
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B164" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="F164" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G164" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4801,13 +4798,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="F165" s="18">
         <v>80000</v>
@@ -4821,22 +4818,22 @@
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B166" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="F166" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G166" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4847,13 +4844,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="F167" s="18">
         <v>80000</v>
@@ -4867,22 +4864,22 @@
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B168" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="F168" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G168" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4893,13 +4890,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="F169" s="18">
         <v>80000</v>
@@ -4916,19 +4913,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F170" s="18">
-        <v>80000</v>
+        <v>220607</v>
       </c>
       <c r="G170" s="18">
-        <v>2000000</v>
+        <v>5515180</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4936,22 +4933,22 @@
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B171" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="F171" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G171" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4962,13 +4959,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F172" s="18">
         <v>80000</v>
@@ -4985,19 +4982,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F173" s="18">
-        <v>80000</v>
+        <v>220607</v>
       </c>
       <c r="G173" s="18">
-        <v>2000000</v>
+        <v>5515180</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -5005,22 +5002,22 @@
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B174" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F174" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G174" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -5031,13 +5028,13 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F175" s="18">
         <v>80000</v>
@@ -5054,19 +5051,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F176" s="18">
-        <v>80000</v>
+        <v>220607</v>
       </c>
       <c r="G176" s="18">
-        <v>2000000</v>
+        <v>5515180</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5074,22 +5071,22 @@
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B177" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F177" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G177" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5100,13 +5097,13 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F178" s="18">
         <v>80000</v>
@@ -5123,19 +5120,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F179" s="18">
-        <v>80000</v>
+        <v>220607</v>
       </c>
       <c r="G179" s="18">
-        <v>2000000</v>
+        <v>5515180</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5143,22 +5140,22 @@
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B180" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F180" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G180" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5169,13 +5166,13 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F181" s="18">
         <v>80000</v>
@@ -5192,19 +5189,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F182" s="18">
-        <v>80000</v>
+        <v>220607</v>
       </c>
       <c r="G182" s="18">
-        <v>2000000</v>
+        <v>5515180</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5212,22 +5209,22 @@
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B183" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F183" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G183" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5238,13 +5235,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="F184" s="18">
         <v>80000</v>
@@ -5261,19 +5258,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F185" s="18">
-        <v>80000</v>
+        <v>220607</v>
       </c>
       <c r="G185" s="18">
-        <v>2000000</v>
+        <v>5515180</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5281,22 +5278,22 @@
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B186" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F186" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G186" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5307,13 +5304,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F187" s="18">
         <v>80000</v>
@@ -5330,19 +5327,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F188" s="18">
-        <v>80000</v>
+        <v>220607</v>
       </c>
       <c r="G188" s="18">
-        <v>2000000</v>
+        <v>5515180</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5350,22 +5347,22 @@
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B189" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F189" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G189" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5376,13 +5373,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F190" s="18">
         <v>80000</v>
@@ -5399,19 +5396,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F191" s="18">
-        <v>80000</v>
+        <v>220607</v>
       </c>
       <c r="G191" s="18">
-        <v>2000000</v>
+        <v>5515180</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5419,22 +5416,22 @@
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B192" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F192" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G192" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5445,13 +5442,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F193" s="18">
         <v>80000</v>
@@ -5468,19 +5465,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F194" s="18">
-        <v>80000</v>
+        <v>220607</v>
       </c>
       <c r="G194" s="18">
-        <v>2000000</v>
+        <v>5515180</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5488,22 +5485,22 @@
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B195" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F195" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G195" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5514,10 +5511,10 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E196" s="16" t="s">
         <v>114</v>
@@ -5537,19 +5534,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="E197" s="16" t="s">
         <v>115</v>
       </c>
       <c r="F197" s="18">
-        <v>80000</v>
+        <v>220607</v>
       </c>
       <c r="G197" s="18">
-        <v>2000000</v>
+        <v>5515180</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5557,22 +5554,22 @@
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B198" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F198" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G198" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5583,13 +5580,13 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F199" s="18">
         <v>80000</v>
@@ -5606,19 +5603,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F200" s="18">
-        <v>80000</v>
+        <v>220607</v>
       </c>
       <c r="G200" s="18">
-        <v>2000000</v>
+        <v>5515180</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5626,22 +5623,22 @@
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B201" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F201" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G201" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5652,13 +5649,13 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F202" s="18">
         <v>80000</v>
@@ -5675,19 +5672,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F203" s="18">
-        <v>80000</v>
+        <v>220607</v>
       </c>
       <c r="G203" s="18">
-        <v>2000000</v>
+        <v>5515180</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5695,22 +5692,22 @@
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B204" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F204" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G204" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5721,13 +5718,13 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F205" s="18">
         <v>80000</v>
@@ -5744,19 +5741,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F206" s="18">
-        <v>80000</v>
+        <v>220607</v>
       </c>
       <c r="G206" s="18">
-        <v>2000000</v>
+        <v>5515180</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5764,22 +5761,22 @@
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B207" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F207" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G207" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5790,13 +5787,13 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F208" s="18">
         <v>80000</v>
@@ -5810,22 +5807,22 @@
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B209" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="F209" s="18">
-        <v>12000</v>
+        <v>220607</v>
       </c>
       <c r="G209" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5833,22 +5830,22 @@
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B210" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="F210" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G210" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5856,22 +5853,22 @@
     </row>
     <row r="211" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B211" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="F211" s="18">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="G211" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5879,22 +5876,22 @@
     </row>
     <row r="212" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B212" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="F212" s="18">
-        <v>40000</v>
+        <v>220607</v>
       </c>
       <c r="G212" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5902,22 +5899,22 @@
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B213" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="F213" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G213" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5925,22 +5922,22 @@
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B214" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="F214" s="18">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="G214" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5948,22 +5945,22 @@
     </row>
     <row r="215" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B215" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="F215" s="18">
-        <v>40000</v>
+        <v>220607</v>
       </c>
       <c r="G215" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5971,22 +5968,22 @@
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B216" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="F216" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G216" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -5994,22 +5991,22 @@
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B217" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F217" s="18">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="G217" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -6017,22 +6014,22 @@
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B218" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="F218" s="18">
-        <v>40000</v>
+        <v>220607</v>
       </c>
       <c r="G218" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -6040,22 +6037,22 @@
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B219" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="F219" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G219" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6063,22 +6060,22 @@
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B220" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="F220" s="18">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="G220" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -6086,22 +6083,22 @@
     </row>
     <row r="221" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B221" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="F221" s="18">
-        <v>40000</v>
+        <v>220607</v>
       </c>
       <c r="G221" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6109,22 +6106,22 @@
     </row>
     <row r="222" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B222" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="F222" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G222" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6132,22 +6129,22 @@
     </row>
     <row r="223" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B223" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="F223" s="18">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="G223" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6155,22 +6152,22 @@
     </row>
     <row r="224" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B224" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="F224" s="18">
-        <v>40000</v>
+        <v>220607</v>
       </c>
       <c r="G224" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6178,22 +6175,22 @@
     </row>
     <row r="225" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B225" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F225" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G225" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6201,22 +6198,22 @@
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B226" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="F226" s="18">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="G226" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6224,22 +6221,22 @@
     </row>
     <row r="227" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B227" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="F227" s="18">
-        <v>40000</v>
+        <v>220607</v>
       </c>
       <c r="G227" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6247,22 +6244,22 @@
     </row>
     <row r="228" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B228" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="F228" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G228" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6270,22 +6267,22 @@
     </row>
     <row r="229" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B229" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="F229" s="18">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="G229" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6293,22 +6290,22 @@
     </row>
     <row r="230" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B230" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F230" s="18">
-        <v>40000</v>
+        <v>220607</v>
       </c>
       <c r="G230" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6316,22 +6313,22 @@
     </row>
     <row r="231" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B231" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F231" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G231" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6339,22 +6336,22 @@
     </row>
     <row r="232" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B232" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F232" s="18">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="G232" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6362,22 +6359,22 @@
     </row>
     <row r="233" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B233" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D233" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E233" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D233" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E233" s="16" t="s">
-        <v>116</v>
-      </c>
       <c r="F233" s="18">
-        <v>40000</v>
+        <v>220607</v>
       </c>
       <c r="G233" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6385,22 +6382,22 @@
     </row>
     <row r="234" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B234" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C234" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D234" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E234" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D234" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E234" s="16" t="s">
-        <v>117</v>
-      </c>
       <c r="F234" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G234" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6408,22 +6405,22 @@
     </row>
     <row r="235" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B235" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E235" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D235" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E235" s="16" t="s">
-        <v>118</v>
-      </c>
       <c r="F235" s="18">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="G235" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6431,22 +6428,22 @@
     </row>
     <row r="236" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B236" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D236" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E236" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E236" s="16" t="s">
-        <v>119</v>
-      </c>
       <c r="F236" s="18">
-        <v>40000</v>
+        <v>220607</v>
       </c>
       <c r="G236" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6454,22 +6451,22 @@
     </row>
     <row r="237" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B237" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="D237" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E237" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E237" s="16" t="s">
-        <v>120</v>
-      </c>
       <c r="F237" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G237" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6477,22 +6474,22 @@
     </row>
     <row r="238" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B238" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="D238" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E238" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E238" s="16" t="s">
-        <v>121</v>
-      </c>
       <c r="F238" s="18">
-        <v>40000</v>
+        <v>66667</v>
       </c>
       <c r="G238" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6500,22 +6497,22 @@
     </row>
     <row r="239" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B239" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F239" s="18">
-        <v>40000</v>
+        <v>220607</v>
       </c>
       <c r="G239" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6523,22 +6520,22 @@
     </row>
     <row r="240" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B240" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F240" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G240" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6546,22 +6543,22 @@
     </row>
     <row r="241" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B241" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F241" s="18">
-        <v>40000</v>
+        <v>220607</v>
       </c>
       <c r="G241" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6569,22 +6566,22 @@
     </row>
     <row r="242" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B242" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F242" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G242" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6592,22 +6589,22 @@
     </row>
     <row r="243" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B243" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F243" s="18">
-        <v>40000</v>
+        <v>220607</v>
       </c>
       <c r="G243" s="18">
-        <v>1000000</v>
+        <v>5515180</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -6615,22 +6612,22 @@
     </row>
     <row r="244" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B244" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="F244" s="18">
-        <v>26500</v>
+        <v>35112</v>
       </c>
       <c r="G244" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6641,19 +6638,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D245" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E245" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E245" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="F245" s="18">
-        <v>88000</v>
+        <v>220607</v>
       </c>
       <c r="G245" s="18">
-        <v>2200000</v>
+        <v>5515180</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6661,22 +6658,22 @@
     </row>
     <row r="246" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B246" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="D246" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E246" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E246" s="16" t="s">
-        <v>59</v>
-      </c>
       <c r="F246" s="18">
-        <v>88000</v>
+        <v>35112</v>
       </c>
       <c r="G246" s="18">
-        <v>2200000</v>
+        <v>877803</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6687,73 +6684,61 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="F247" s="18">
-        <v>88000</v>
+        <v>220607</v>
       </c>
       <c r="G247" s="18">
-        <v>2200000</v>
+        <v>5515180</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
       <c r="J247" s="20"/>
     </row>
     <row r="248" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B248" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C248" s="16" t="s">
+      <c r="B248" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C248" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D248" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E248" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="D248" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E248" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F248" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G248" s="18">
-        <v>1800000</v>
-      </c>
-      <c r="H248" s="19"/>
-      <c r="I248" s="19"/>
-      <c r="J248" s="20"/>
-    </row>
-    <row r="249" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B249" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C249" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D249" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E249" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F249" s="24">
-        <v>40000</v>
-      </c>
-      <c r="G249" s="24">
-        <v>1800000</v>
-      </c>
-      <c r="H249" s="25"/>
-      <c r="I249" s="25"/>
-      <c r="J249" s="26"/>
+      <c r="F248" s="24">
+        <v>35112</v>
+      </c>
+      <c r="G248" s="24">
+        <v>877803</v>
+      </c>
+      <c r="H248" s="25"/>
+      <c r="I248" s="25"/>
+      <c r="J248" s="26"/>
+    </row>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B253" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C253" s="32"/>
+      <c r="H253" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I253" s="1"/>
+      <c r="J253" s="1"/>
     </row>
     <row r="254" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B254" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C254" s="32"/>
       <c r="H254" s="1" t="s">
@@ -6762,23 +6747,12 @@
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
     </row>
-    <row r="255" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B255" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C255" s="32"/>
-      <c r="H255" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I255" s="1"/>
-      <c r="J255" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B255:C255"/>
     <mergeCell ref="B254:C254"/>
-    <mergeCell ref="H255:J255"/>
+    <mergeCell ref="B253:C253"/>
     <mergeCell ref="H254:J254"/>
+    <mergeCell ref="H253:J253"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
